--- a/11 Noviembre 2022.xlsx
+++ b/11 Noviembre 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 7/OCJ/Dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{CA6F182E-AADB-466B-ABDD-12552CA42FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8469C723-AFF4-4153-AA71-87A895E3B7C9}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{CA6F182E-AADB-466B-ABDD-12552CA42FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BE2F92F-B6D1-42C6-8B06-91207C7B3728}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15780,8 +15780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0ACF3F-CADB-42F4-8399-898A581F09E6}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
